--- a/Tos.FoodProcs.Web/templates/genshizaiUkeharaiIchiran_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiUkeharaiIchiran_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50ECAD0-50E3-44A9-9796-7DA56E432574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,35 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Movement division       ：</t>
-  </si>
-  <si>
     <t>Danh sách nhập, xuất nguyên vật liệu</t>
-  </si>
-  <si>
-    <t>Ngày　　　　　　　　　　      ：</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm   　　　　      　：</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm   　 　　    　  ：</t>
-  </si>
-  <si>
-    <t>Tên nguyên vật liệu 　 　　      ：</t>
-  </si>
-  <si>
-    <t>Bao gồm phần không sử dụng  ：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉ hiển thị khi có tồn kho tính toán hoặc tồn kho thực tế 　      :
-</t>
-  </si>
-  <si>
-    <t>Người xuất                             　：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất            　         　：</t>
   </si>
   <si>
     <t>Mã nguyên vật liệu</t>
@@ -90,13 +63,83 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <r>
+      <t>Ngày</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tên nguyên vật liệu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bao gồm phần không sử dụng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Movement division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Người xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chỉ hiển thị khi có tồn kho tính toán hoặc tồn kho thực tế </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                     :
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="@* \:"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -131,6 +174,12 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -231,7 +280,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -256,10 +305,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -274,6 +319,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -294,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,9 +387,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -587,119 +640,119 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="19.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="19.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="F12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
